--- a/teaching/traditional_assets/database/data/singapore/singapore_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_investments_asset_management.xlsx
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.153</v>
+        <v>0.127</v>
       </c>
       <c r="E2">
-        <v>0.01365</v>
+        <v>0.112</v>
+      </c>
+      <c r="F2">
+        <v>0.388</v>
       </c>
       <c r="G2">
-        <v>0.1046519727757358</v>
+        <v>0.2023340765690972</v>
       </c>
       <c r="H2">
-        <v>0.09571926719033629</v>
+        <v>0.1895251197874662</v>
       </c>
       <c r="I2">
-        <v>0.009514744090088878</v>
+        <v>0.07391637806980091</v>
       </c>
       <c r="J2">
-        <v>0.00916555987902333</v>
+        <v>0.07174236695010087</v>
       </c>
       <c r="K2">
-        <v>12.502</v>
+        <v>-1.326000000000001</v>
       </c>
       <c r="L2">
-        <v>0.0512278372608555</v>
+        <v>-0.005242184164334175</v>
       </c>
       <c r="M2">
-        <v>13.68</v>
+        <v>10.457</v>
       </c>
       <c r="N2">
-        <v>0.02947894668792828</v>
+        <v>0.01043998282799038</v>
       </c>
       <c r="O2">
-        <v>1.094224924012158</v>
+        <v>-7.886123680241323</v>
       </c>
       <c r="P2">
-        <v>13.68</v>
+        <v>10.09</v>
       </c>
       <c r="Q2">
-        <v>0.02947894668792828</v>
+        <v>0.01007358006449487</v>
       </c>
       <c r="R2">
-        <v>1.094224924012158</v>
+        <v>-7.609351432880841</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.367</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0350961078703261</v>
       </c>
       <c r="U2">
-        <v>79.875</v>
+        <v>69.37400000000001</v>
       </c>
       <c r="V2">
-        <v>0.1721221393785286</v>
+        <v>0.06926110439982829</v>
       </c>
       <c r="W2">
-        <v>-0.1976439617205867</v>
+        <v>-0.04072845838800747</v>
       </c>
       <c r="X2">
-        <v>0.04861666516472469</v>
+        <v>0.03536307638425101</v>
       </c>
       <c r="Y2">
-        <v>-0.2462606268853114</v>
+        <v>-0.07609153477225848</v>
       </c>
       <c r="Z2">
-        <v>0.3641162283534271</v>
+        <v>0.3768189347984125</v>
       </c>
       <c r="AA2">
-        <v>0.04084408089661117</v>
+        <v>-0.01807167951781926</v>
       </c>
       <c r="AB2">
-        <v>0.04781855779847691</v>
+        <v>0.035279085572385</v>
       </c>
       <c r="AC2">
-        <v>-0.007143155664205904</v>
+        <v>-0.05420242512310176</v>
       </c>
       <c r="AD2">
-        <v>442.457</v>
+        <v>153.535</v>
       </c>
       <c r="AE2">
-        <v>275.6697762452305</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>718.1267762452304</v>
+        <v>153.535</v>
       </c>
       <c r="AG2">
-        <v>638.2517762452304</v>
+        <v>84.16099999999999</v>
       </c>
       <c r="AH2">
-        <v>0.6074562756708282</v>
+        <v>0.1329117485380876</v>
       </c>
       <c r="AI2">
-        <v>0.6938511609302697</v>
+        <v>0.3320429502914175</v>
       </c>
       <c r="AJ2">
-        <v>0.5790120272680812</v>
+        <v>0.07751123374572086</v>
       </c>
       <c r="AK2">
-        <v>0.6682482533660601</v>
+        <v>0.2141386847013264</v>
       </c>
       <c r="AL2">
-        <v>9.834</v>
+        <v>10.152</v>
       </c>
       <c r="AM2">
-        <v>7.529</v>
+        <v>7.570000000000001</v>
       </c>
       <c r="AN2">
-        <v>6.316122309141781</v>
+        <v>4.664023816033293</v>
       </c>
       <c r="AO2">
-        <v>3.012507626601586</v>
+        <v>1.841706067769897</v>
       </c>
       <c r="AP2">
-        <v>9.111114261480479</v>
+        <v>2.556608645463106</v>
       </c>
       <c r="AQ2">
-        <v>3.934785496081817</v>
+        <v>2.469881109643329</v>
       </c>
     </row>
     <row r="3">
@@ -725,47 +728,44 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1594387755102041</v>
+        <v>0.3633663366336634</v>
       </c>
       <c r="H3">
-        <v>0.1594387755102041</v>
+        <v>0.3633663366336634</v>
       </c>
       <c r="I3">
-        <v>0.09873946679284648</v>
+        <v>0.2712871287128713</v>
       </c>
       <c r="J3">
-        <v>0.09873946679284648</v>
+        <v>0.2712871287128713</v>
       </c>
       <c r="K3">
-        <v>-0.09</v>
+        <v>-1.8</v>
       </c>
       <c r="L3">
-        <v>-0.01147959183673469</v>
+        <v>-0.1782178217821782</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02257336343115124</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02257336343115124</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -773,61 +773,52 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.04812488422420773</v>
-      </c>
-      <c r="Z3">
-        <v>10.18958738860455</v>
-      </c>
-      <c r="AA3">
-        <v>1.006114425589927</v>
+        <v>0.03530966097083269</v>
       </c>
       <c r="AB3">
-        <v>0.04782746645378087</v>
-      </c>
-      <c r="AC3">
-        <v>0.9582869591361457</v>
+        <v>0.03525210685652549</v>
       </c>
       <c r="AD3">
-        <v>0.586</v>
+        <v>0.219</v>
       </c>
       <c r="AE3">
-        <v>0.7694129017204174</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.355412901720417</v>
+        <v>0.219</v>
       </c>
       <c r="AG3">
-        <v>1.355412901720417</v>
+        <v>0.219</v>
       </c>
       <c r="AH3">
-        <v>0.01506760802933844</v>
+        <v>0.00297074024335653</v>
       </c>
       <c r="AI3">
-        <v>0.05202039617767564</v>
+        <v>0.01017705283702774</v>
       </c>
       <c r="AJ3">
-        <v>0.01506760802933844</v>
+        <v>0.00297074024335653</v>
       </c>
       <c r="AK3">
-        <v>0.05202039617767564</v>
+        <v>0.01017705283702774</v>
       </c>
       <c r="AL3">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="AM3">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="AN3">
-        <v>0.5405904059040589</v>
+        <v>0.07577854671280276</v>
       </c>
       <c r="AO3">
-        <v>28.61111111111111</v>
+        <v>195.7142857142857</v>
       </c>
       <c r="AP3">
-        <v>1.250380905646141</v>
+        <v>0.07577854671280276</v>
       </c>
       <c r="AQ3">
-        <v>28.61111111111111</v>
+        <v>195.7142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -847,121 +838,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.09669999999999999</v>
+        <v>0.131</v>
       </c>
       <c r="E4">
-        <v>0.0275</v>
+        <v>0.112</v>
+      </c>
+      <c r="F4">
+        <v>0.388</v>
       </c>
       <c r="G4">
-        <v>0.1248842592592592</v>
+        <v>0.1014886164623468</v>
       </c>
       <c r="H4">
-        <v>0.09965277777777777</v>
+        <v>0.07311733800350262</v>
       </c>
       <c r="I4">
-        <v>0.09989118282835062</v>
+        <v>0.1208406304728546</v>
       </c>
       <c r="J4">
-        <v>0.08499975319826668</v>
+        <v>0.09951581333058618</v>
       </c>
       <c r="K4">
-        <v>6.61</v>
+        <v>12.7</v>
       </c>
       <c r="L4">
-        <v>0.07650462962962963</v>
+        <v>0.1112084063047285</v>
       </c>
       <c r="M4">
-        <v>6.1</v>
+        <v>6.598</v>
       </c>
       <c r="N4">
-        <v>0.02935514918190568</v>
+        <v>0.01067119521267993</v>
       </c>
       <c r="O4">
-        <v>0.9228441754916792</v>
+        <v>0.5195275590551182</v>
       </c>
       <c r="P4">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="Q4">
-        <v>0.02935514918190568</v>
+        <v>0.01010836163674592</v>
       </c>
       <c r="R4">
-        <v>0.9228441754916792</v>
+        <v>0.4921259842519685</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.3479999999999999</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.05274325553197937</v>
       </c>
       <c r="U4">
-        <v>16.3</v>
+        <v>23.8</v>
       </c>
       <c r="V4">
-        <v>0.07844080846968239</v>
+        <v>0.03849264111272845</v>
       </c>
       <c r="W4">
-        <v>0.106957928802589</v>
+        <v>0.1978193146417445</v>
       </c>
       <c r="X4">
-        <v>0.05141826602934924</v>
+        <v>0.03584803762187968</v>
       </c>
       <c r="Y4">
-        <v>0.05553966277323977</v>
+        <v>0.1619712770198648</v>
       </c>
       <c r="Z4">
-        <v>1.604248018505425</v>
+        <v>1.691851851851851</v>
       </c>
       <c r="AA4">
-        <v>0.1363606856417695</v>
+        <v>0.1683660130718954</v>
       </c>
       <c r="AB4">
-        <v>0.04767542451660183</v>
+        <v>0.0353060642882445</v>
       </c>
       <c r="AC4">
-        <v>0.08868526112516761</v>
+        <v>0.1330599487836509</v>
       </c>
       <c r="AD4">
-        <v>19.6</v>
+        <v>17.3</v>
       </c>
       <c r="AE4">
-        <v>12.44700901815254</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>32.04700901815254</v>
+        <v>17.3</v>
       </c>
       <c r="AG4">
-        <v>15.74700901815254</v>
+        <v>-6.5</v>
       </c>
       <c r="AH4">
-        <v>0.1336143783878793</v>
+        <v>0.02721837633731907</v>
       </c>
       <c r="AI4">
-        <v>0.3340073791366384</v>
+        <v>0.1911602209944751</v>
       </c>
       <c r="AJ4">
-        <v>0.07044160012390883</v>
+        <v>-0.010624387054593</v>
       </c>
       <c r="AK4">
-        <v>0.1977099857518015</v>
+        <v>-0.09745127436281859</v>
       </c>
       <c r="AL4">
-        <v>0.836</v>
+        <v>0.643</v>
       </c>
       <c r="AM4">
-        <v>-1.014</v>
+        <v>-0.5469999999999999</v>
       </c>
       <c r="AN4">
-        <v>1.490494296577947</v>
+        <v>1.074534161490683</v>
       </c>
       <c r="AO4">
-        <v>7.763157894736842</v>
+        <v>21.46189735614308</v>
       </c>
       <c r="AP4">
-        <v>1.197491180087646</v>
+        <v>-0.4037267080745341</v>
       </c>
       <c r="AQ4">
-        <v>-6.400394477317553</v>
+        <v>-25.22851919561244</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIH Limited (SGX:T55)</t>
+          <t>Uni-Asia Group Limited (SGX:CHJ)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,115 +975,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.328</v>
+        <v>0.123</v>
       </c>
       <c r="G5">
-        <v>-0.9185803757828811</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="H5">
-        <v>-0.9185803757828811</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="I5">
-        <v>0.614647881205666</v>
+        <v>0.06348096348096349</v>
       </c>
       <c r="J5">
-        <v>0.614647881205666</v>
+        <v>0.06348096348096349</v>
       </c>
       <c r="K5">
-        <v>5.92</v>
+        <v>-4.43</v>
       </c>
       <c r="L5">
-        <v>0.6179540709812108</v>
+        <v>-0.03442113442113443</v>
       </c>
       <c r="M5">
-        <v>1.75</v>
+        <v>2.089</v>
       </c>
       <c r="N5">
-        <v>0.04342431761786601</v>
+        <v>0.05901129943502825</v>
       </c>
       <c r="O5">
-        <v>0.2956081081081081</v>
+        <v>-0.4715575620767495</v>
       </c>
       <c r="P5">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="Q5">
-        <v>0.04342431761786601</v>
+        <v>0.05847457627118644</v>
       </c>
       <c r="R5">
-        <v>0.2956081081081081</v>
+        <v>-0.4672686230248307</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01900000000000013</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.009095260890378232</v>
       </c>
       <c r="U5">
-        <v>8.84</v>
+        <v>31.1</v>
       </c>
       <c r="V5">
-        <v>0.2193548387096774</v>
+        <v>0.8785310734463277</v>
       </c>
       <c r="W5">
-        <v>0.06742596810933942</v>
+        <v>-0.03558232931726907</v>
       </c>
       <c r="X5">
-        <v>0.0480271472727931</v>
+        <v>0.1179170818065115</v>
       </c>
       <c r="Y5">
-        <v>0.01939882083654632</v>
+        <v>-0.1534994111237806</v>
       </c>
       <c r="Z5">
-        <v>0.1224463192389635</v>
+        <v>0.2503404007002528</v>
       </c>
       <c r="AA5">
-        <v>0.07526137068166149</v>
+        <v>0.01589184983466252</v>
       </c>
       <c r="AB5">
-        <v>0.04781007647506616</v>
+        <v>0.03701089956772041</v>
       </c>
       <c r="AC5">
-        <v>0.02745129420659533</v>
+        <v>-0.0211190497330579</v>
       </c>
       <c r="AD5">
-        <v>0.192</v>
+        <v>135.9</v>
       </c>
       <c r="AE5">
-        <v>0.2583664902485964</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.4503664902485964</v>
+        <v>135.9</v>
       </c>
       <c r="AG5">
-        <v>-8.389633509751404</v>
+        <v>104.8</v>
       </c>
       <c r="AH5">
-        <v>0.01105183901490475</v>
+        <v>0.7933450087565674</v>
       </c>
       <c r="AI5">
-        <v>0.004930100529992639</v>
+        <v>0.52899961074348</v>
       </c>
       <c r="AJ5">
-        <v>-0.2629124774331618</v>
+        <v>0.7475035663338089</v>
       </c>
       <c r="AK5">
-        <v>-0.1016797508800658</v>
+        <v>0.4641275465013286</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AM5">
-        <v>-0.125</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AN5">
-        <v>0.03226890756302521</v>
+        <v>7.152631578947369</v>
+      </c>
+      <c r="AO5">
+        <v>0.8627243928194297</v>
       </c>
       <c r="AP5">
-        <v>-1.410022438613681</v>
+        <v>5.515789473684211</v>
       </c>
       <c r="AQ5">
-        <v>-46.56</v>
+        <v>0.8627243928194297</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reenova Investment Holding Limited (SGX:5EC)</t>
+          <t>TIH Limited (SGX:T55)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,106 +1106,112 @@
         </is>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-20.19047619047619</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-20.19047619047619</v>
       </c>
       <c r="I6">
-        <v>0.3382031027285647</v>
+        <v>8.152380952380952</v>
       </c>
       <c r="J6">
-        <v>0.3382031027285647</v>
+        <v>8.152380952380952</v>
       </c>
       <c r="K6">
-        <v>-2.5</v>
+        <v>-4.17</v>
       </c>
       <c r="L6">
-        <v>-19.68503937007874</v>
+        <v>7.942857142857142</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>1.77</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.04836065573770491</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0.4244604316546763</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>1.77</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.04836065573770491</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0.4244604316546763</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>0.074</v>
+        <v>13.8</v>
       </c>
       <c r="V6">
-        <v>0.007581967213114753</v>
+        <v>0.3770491803278689</v>
       </c>
       <c r="W6">
-        <v>-0.4180602006688963</v>
+        <v>-0.04587458745874587</v>
       </c>
       <c r="X6">
-        <v>0.04910844610524165</v>
+        <v>0.03529492021382818</v>
       </c>
       <c r="Y6">
-        <v>-0.4671686467741379</v>
+        <v>-0.08116950767257405</v>
       </c>
       <c r="Z6">
-        <v>0.01900275621279228</v>
+        <v>-0.006382823517969169</v>
       </c>
       <c r="AA6">
-        <v>0.006426791111560859</v>
+        <v>-0.05203520887030103</v>
       </c>
       <c r="AB6">
-        <v>0.04816439664656799</v>
+        <v>0.0352505916428446</v>
       </c>
       <c r="AC6">
-        <v>-0.04173760553500713</v>
+        <v>-0.08728580051314563</v>
       </c>
       <c r="AD6">
-        <v>0.429</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.1252410297673614</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.5542410297673614</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AG6">
-        <v>0.4802410297673614</v>
+        <v>-13.716</v>
       </c>
       <c r="AH6">
-        <v>0.05373551269238299</v>
+        <v>0.002289826627412496</v>
       </c>
       <c r="AI6">
-        <v>0.125557491317272</v>
+        <v>0.0009735292754160679</v>
       </c>
       <c r="AJ6">
-        <v>0.04689743418844816</v>
+        <v>-0.5993707393812271</v>
       </c>
       <c r="AK6">
-        <v>0.1106484700904048</v>
+        <v>-0.1892279675514596</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>-0.052</v>
       </c>
       <c r="AN6">
-        <v>6.308823529411764</v>
+        <v>-0.01981132075471698</v>
       </c>
       <c r="AP6">
-        <v>7.062368084814138</v>
+        <v>3.234905660377358</v>
+      </c>
+      <c r="AQ6">
+        <v>82.30769230769232</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1222,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8i Enterprises Acquisition Corp. (NasdaqCM:JFK)</t>
+          <t>SC Health Corporation (NYSE:SCPE)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1228,7 +1231,7 @@
         </is>
       </c>
       <c r="K7">
-        <v>-0.428</v>
+        <v>0.444</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1237,7 +1240,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1246,70 +1249,70 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.161</v>
+        <v>0.111</v>
       </c>
       <c r="V7">
-        <v>0.002163978494623656</v>
+        <v>0.000474764756201882</v>
       </c>
       <c r="W7">
-        <v>-142.6666666666667</v>
+        <v>0.0888</v>
       </c>
       <c r="X7">
-        <v>0.04796933180238802</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y7">
-        <v>-142.714635998469</v>
+        <v>0.05355450382969624</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-0.2278481012658228</v>
       </c>
       <c r="AB7">
-        <v>0.04782703912188766</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC7">
-        <v>-0.04782703912188766</v>
+        <v>-0.2630935974361265</v>
       </c>
       <c r="AD7">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.489</v>
+        <v>-0.111</v>
       </c>
       <c r="AH7">
-        <v>0.008660892738174549</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.1150442477876106</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.006529663902575812</v>
+        <v>-0.0004749902648391666</v>
       </c>
       <c r="AK7">
-        <v>0.08908726543997085</v>
+        <v>-0.02270402945387605</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.33</v>
+        <v>-1.34</v>
       </c>
       <c r="AQ7">
-        <v>-0</v>
+        <v>0.6716417910447761</v>
       </c>
     </row>
     <row r="8">
@@ -1320,7 +1323,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Uni-Asia Group Limited (SGX:CHJ)</t>
+          <t>Forise International Limited (SGX:8A1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1328,122 +1331,113 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0.153</v>
-      </c>
-      <c r="E8">
-        <v>-0.0002</v>
-      </c>
       <c r="G8">
-        <v>0.1591720199857245</v>
+        <v>-1.437632135306554</v>
       </c>
       <c r="H8">
-        <v>0.1591720199857245</v>
+        <v>-1.437632135306554</v>
       </c>
       <c r="I8">
-        <v>-0.09289043084274304</v>
+        <v>-1.761099365750529</v>
       </c>
       <c r="J8">
-        <v>-0.08628414388389091</v>
+        <v>-1.761099365750529</v>
       </c>
       <c r="K8">
-        <v>2.99</v>
+        <v>-4.07</v>
       </c>
       <c r="L8">
-        <v>0.02134189864382584</v>
+        <v>-8.604651162790699</v>
       </c>
       <c r="M8">
-        <v>3.83</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.08865740740740741</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>1.280936454849498</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3.83</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.08865740740740741</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>1.280936454849498</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>54.5</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="V8">
-        <v>1.261574074074074</v>
+        <v>0.1397022332506203</v>
       </c>
       <c r="W8">
-        <v>0.02277227722772277</v>
+        <v>-0.6339563862928349</v>
       </c>
       <c r="X8">
-        <v>0.4226068666048916</v>
+        <v>0.03541649179766934</v>
       </c>
       <c r="Y8">
-        <v>-0.3998345893771688</v>
+        <v>-0.6693728780905043</v>
       </c>
       <c r="Z8">
-        <v>0.2641055420101278</v>
+        <v>0.1363112391930836</v>
       </c>
       <c r="AA8">
-        <v>-0.02278812058733486</v>
+        <v>-0.2400576368876081</v>
       </c>
       <c r="AB8">
-        <v>0.04715127854587003</v>
+        <v>0.03533351323107027</v>
       </c>
       <c r="AC8">
-        <v>-0.0699393991332049</v>
+        <v>-0.2753911501186784</v>
       </c>
       <c r="AD8">
-        <v>421</v>
+        <v>0.032</v>
       </c>
       <c r="AE8">
-        <v>262.0697468053415</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>683.0697468053415</v>
+        <v>0.032</v>
       </c>
       <c r="AG8">
-        <v>628.5697468053415</v>
+        <v>-0.5309999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.9405179684407552</v>
+        <v>0.007877892663712456</v>
       </c>
       <c r="AI8">
-        <v>0.8416648716812983</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="AJ8">
-        <v>0.9356922513920263</v>
+        <v>-0.1517576450414404</v>
       </c>
       <c r="AK8">
-        <v>0.8302666292739339</v>
+        <v>-0.3259668508287292</v>
       </c>
       <c r="AL8">
-        <v>8.98</v>
+        <v>0.025</v>
       </c>
       <c r="AM8">
-        <v>8.98</v>
+        <v>0.025</v>
       </c>
       <c r="AN8">
-        <v>8.453815261044177</v>
+        <v>-0.03850782190132371</v>
       </c>
       <c r="AO8">
-        <v>1.870824053452116</v>
+        <v>-33.31999999999999</v>
       </c>
       <c r="AP8">
-        <v>12.62188246597071</v>
+        <v>0.6389891696750902</v>
       </c>
       <c r="AQ8">
-        <v>1.870824053452116</v>
+        <v>-33.31999999999999</v>
       </c>
     </row>
   </sheetData>
